--- a/data_year/zb/综合/法人单位数/三次产业法人单位数.xlsx
+++ b/data_year/zb/综合/法人单位数/三次产业法人单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
         <v>2395828</v>
       </c>
       <c r="C5" t="n">
-        <v>1815</v>
+        <v>434486</v>
       </c>
       <c r="D5" t="n">
         <v>8080449</v>
@@ -609,7 +609,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1224</v>
+        <v>1694997</v>
       </c>
       <c r="D10" t="n">
         <v>17159814</v>
@@ -650,6 +650,23 @@
       </c>
       <c r="E12" t="n">
         <v>5904042</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>1915236</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24254118</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6697618</v>
       </c>
     </row>
   </sheetData>
